--- a/doc/セミナー/202306xx_パーソナルデータ連携モジュール_セミナー資料（接続事業者様向け）先行公開資料/接続事業者向けセミナー_STEP1-4手順詳細.xlsx
+++ b/doc/セミナー/202306xx_パーソナルデータ連携モジュール_セミナー資料（接続事業者様向け）先行公開資料/接続事業者向けセミナー_STEP1-4手順詳細.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_akiyama\Box\External：PxRドキュメント共有用\EX_PxR_NEC-NES-Partner\PxR_業務分析_パートナー共有\04.ドキュメント整備\03.執筆\10_セミナー向け\03_接続事業者向け\work\aki_work\GitHub公開用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_akiyama\Box\External：PxRドキュメント共有用\EX_PxR_NEC-NES-Partner\PxR_業務分析_パートナー共有\04.ドキュメント整備\03.執筆\10_セミナー向け\03_接続事業者向け\GitHub公開用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B6D05D-74BB-4160-9AB0-CFFB42D6730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5930554-8B4B-46B7-B986-804D59BF7B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="963" activeTab="6" xr2:uid="{F05412B3-2EED-4CA0-AD27-8ED689061A18}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="963" xr2:uid="{F05412B3-2EED-4CA0-AD27-8ED689061A18}"/>
   </bookViews>
   <sheets>
     <sheet name="手順一覧" sheetId="2" r:id="rId1"/>
@@ -759,7 +759,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="1762125"/>
+          <a:off x="1524000" y="3429000"/>
           <a:ext cx="15085714" cy="2838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -803,7 +803,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="6029325"/>
+          <a:off x="1524000" y="6267450"/>
           <a:ext cx="15085714" cy="6409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1028,8 +1028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="3419475"/>
-          <a:ext cx="15076190" cy="2895238"/>
+          <a:off x="1524000" y="2450166"/>
+          <a:ext cx="15052658" cy="2861621"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1072,8 +1072,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="6315075"/>
-          <a:ext cx="15057143" cy="6428571"/>
+          <a:off x="1524000" y="5312149"/>
+          <a:ext cx="15033611" cy="6352931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,138 +1223,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>541040</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95208</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D9E9D3-B3D8-4BBE-8F5A-B9F15C6DAD93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="2143125"/>
-          <a:ext cx="15076190" cy="333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>550564</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152063</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AEA23E-9EB3-4463-ACE6-026983185F09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="2457450"/>
-          <a:ext cx="15085714" cy="2695238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>541040</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>151596</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E958FF9-B72E-4CB5-B123-D014143F2206}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="5153025"/>
-          <a:ext cx="15076190" cy="6428571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
@@ -1378,7 +1246,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1422,7 +1290,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1466,7 +1334,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1475,6 +1343,270 @@
         <a:xfrm>
           <a:off x="1524000" y="13573125"/>
           <a:ext cx="15076190" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>598188</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2A0B8D-6C45-4EA7-BE78-C2C63C8C8369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="13020675"/>
+          <a:ext cx="15133338" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F693740E-481F-4B08-8E87-E69F561329F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="2143125"/>
+          <a:ext cx="15114290" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579140</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F282BA0-8F30-4E01-8A7F-190FA0E5D0E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="2438400"/>
+          <a:ext cx="15114290" cy="2685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>588664</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>46823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4769A0-49FB-4CA0-9EE4-682E165C678F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="5057775"/>
+          <a:ext cx="15123814" cy="6419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579140</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B253A3A1-9EC5-4BEB-94BE-AD6848121785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="11477625"/>
+          <a:ext cx="15114290" cy="1552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579140</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>56995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2836DAD-C731-499B-8CFF-C44E42D3F2CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="13344525"/>
+          <a:ext cx="15114290" cy="1238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1595,16 +1727,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>541565</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>53397</xdr:rowOff>
+      <xdr:colOff>480599</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>162774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8FCD4E1-B125-4F30-B237-69BBFD419CB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16E7AE8-81DE-41E8-B374-6EF771B411E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1524000" y="2619375"/>
-          <a:ext cx="15076715" cy="5054022"/>
+          <a:ext cx="15015749" cy="5401524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1932,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAC572B-79AC-445D-A19B-FBAEFCADAEA9}">
   <dimension ref="A4:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2012,9 +2144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76936F4A-DC87-4A10-8BA9-A6C824F156BA}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2085,9 +2215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A897AC3-71B0-49BC-954E-789B4C0912CB}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2156,9 +2284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AD48D0-4C3C-4F8B-8E48-6629FCB5B324}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2227,9 +2353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642E2222-9C6D-4902-9823-BA8CA6462EE7}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2300,9 +2424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D7759-5E40-47D7-A1C7-B2D873679CD8}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2373,9 +2495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064DCE02-71AB-4E15-AFED-02EC6FDB3EA9}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/doc/セミナー/202306xx_パーソナルデータ連携モジュール_セミナー資料（接続事業者様向け）先行公開資料/接続事業者向けセミナー_STEP1-4手順詳細.xlsx
+++ b/doc/セミナー/202306xx_パーソナルデータ連携モジュール_セミナー資料（接続事業者様向け）先行公開資料/接続事業者向けセミナー_STEP1-4手順詳細.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_akiyama\Box\External：PxRドキュメント共有用\EX_PxR_NEC-NES-Partner\PxR_業務分析_パートナー共有\04.ドキュメント整備\03.執筆\10_セミナー向け\03_接続事業者向け\GitHub公開用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_akiyama\Box\External：PxRドキュメント共有用\EX_PxR_NEC-NES-Partner\PxR_業務分析_パートナー共有\04.ドキュメント整備\03.執筆\10_セミナー向け\03_接続事業者向け\GitHub公開用（先行公開）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5930554-8B4B-46B7-B986-804D59BF7B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A471DCD3-8A8A-47AB-B18B-1F2AACFBE54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="963" xr2:uid="{F05412B3-2EED-4CA0-AD27-8ED689061A18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="963" xr2:uid="{F05412B3-2EED-4CA0-AD27-8ED689061A18}"/>
   </bookViews>
   <sheets>
     <sheet name="手順一覧" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -94,95 +94,6 @@
   </si>
   <si>
     <t>PF 設定：EKS マニフェストアクターコード設定（APP2（見守りアプリ））</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># kubectl apply -f . -Rの実行でWARNが表示されるが問題なし
-該当manifestを「kubectl create」で作成していて、作成から初めて実行した「kubectl apply」だった為
-　※kubectl applyは「過去」、「現在」、「未来」の3つの状態から差分を確認し反映するが、kubectl createで作成した際、
-　　「過去」がない為、該当のWARNメッセージが表示される
-　　kubectl applyは「過去」の状態がないときに「現在」の情報を「過去」に自動設定する処理がある為、問題なし</t>
-    <rPh sb="24" eb="26">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ミライ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>サブン</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="205" eb="207">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="228" eb="230">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="232" eb="234">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="241" eb="243">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="249" eb="251">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="253" eb="257">
-      <t>ジドウセッテイ</t>
-    </rPh>
-    <rPh sb="259" eb="261">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="264" eb="265">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="266" eb="268">
-      <t>モンダイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -226,23 +137,6 @@
   </si>
   <si>
     <t>アクターコード設定確認（Region）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・レスポンスのactorに設定したコードとバージョンが設定されていることを確認</t>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・レスポンスのactorに設定したコードとバージョンが設定されていることを確認</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -544,12 +438,35 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・レスポンスのactor部分に、設定したコードとバージョンが設定されていることを確認</t>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レスポンスのactor部分に、設定したコードとバージョンが設定されていることを確認</t>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +495,14 @@
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -631,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,6 +585,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1223,138 +1151,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>541040</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>161712</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7C30BB-1D00-4E39-9C72-58EE6B08B408}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="11553825"/>
-          <a:ext cx="15076190" cy="1704762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>560088</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>238085</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE7F3E0-91D5-40CA-B418-DF4384414FF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="13249275"/>
-          <a:ext cx="15095238" cy="323810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>541040</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>209435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF74F75-274A-457E-8718-03F69F601255}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="13573125"/>
-          <a:ext cx="15076190" cy="923810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
@@ -1366,10 +1162,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
+        <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2A0B8D-6C45-4EA7-BE78-C2C63C8C8369}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30841718-1D68-449A-B03B-2D9CE4F5B9A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1174,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1410,10 +1206,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
+        <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F693740E-481F-4B08-8E87-E69F561329F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACEEC95-FF33-4F23-A42E-10E3C5A05C1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1218,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1454,10 +1250,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
+        <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F282BA0-8F30-4E01-8A7F-190FA0E5D0E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F049AAEA-8A68-47CC-A4AD-40F09C300DD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1262,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1498,10 +1294,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
+        <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4769A0-49FB-4CA0-9EE4-682E165C678F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89618119-431A-4C3F-B8EA-1D936586C9FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1306,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1542,10 +1338,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
+        <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B253A3A1-9EC5-4BEB-94BE-AD6848121785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9124CFFE-663D-41CF-918C-55B69CB80517}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1350,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1586,10 +1382,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
+        <xdr:cNvPr id="24" name="図 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2836DAD-C731-499B-8CFF-C44E42D3F2CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1354A0C3-2DB9-44A0-8876-20004135FCA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1394,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2074,7 +1870,7 @@
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -2087,7 +1883,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -2095,7 +1891,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
@@ -2103,7 +1899,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
@@ -2111,26 +1907,26 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2165,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
@@ -2173,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="75" x14ac:dyDescent="0.4">
@@ -2181,16 +1977,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="93.75" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2213,75 +2007,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A897AC3-71B0-49BC-954E-789B4C0912CB}">
-  <dimension ref="B2:Q31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="75" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="Q6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C31" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AD48D0-4C3C-4F8B-8E48-6629FCB5B324}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2297,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
@@ -2305,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
@@ -2313,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="75" x14ac:dyDescent="0.4">
@@ -2321,7 +2046,78 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="Q6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C31" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AD48D0-4C3C-4F8B-8E48-6629FCB5B324}">
+  <dimension ref="B2:Q31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="75" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
@@ -2353,7 +2149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642E2222-9C6D-4902-9823-BA8CA6462EE7}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2366,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
@@ -2374,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
@@ -2382,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="112.5" x14ac:dyDescent="0.4">
@@ -2390,15 +2188,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>7</v>
@@ -2424,7 +2222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D7759-5E40-47D7-A1C7-B2D873679CD8}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2437,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
@@ -2445,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
@@ -2453,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="112.5" x14ac:dyDescent="0.4">
@@ -2461,15 +2261,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>7</v>
@@ -2495,7 +2295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064DCE02-71AB-4E15-AFED-02EC6FDB3EA9}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2508,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
@@ -2516,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
@@ -2524,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="112.5" x14ac:dyDescent="0.4">
@@ -2532,15 +2334,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>7</v>
